--- a/biology/Botanique/Square_Hirn/Square_Hirn.xlsx
+++ b/biology/Botanique/Square_Hirn/Square_Hirn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Hirn est un parc public de Colmar en Alsace.
@@ -512,9 +524,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est situé dans le quartier centre[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est situé dans le quartier centre.
 On y accède par les boulevards Saint-Pierre, du Général-Leclerc et l'avenue Joffre.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le lieu existait déjà avant 1789, il était alors à l'extérieur des remparts. Il prend sa forme actuelle à la fin du XIXe siècle[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lieu existait déjà avant 1789, il était alors à l'extérieur des remparts. Il prend sa forme actuelle à la fin du XIXe siècle.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son dessin évoque un jardin à la française[2].
-On y trouve le monument Hirn, statue en bronze édifiée par Bartholdi en 1894[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son dessin évoque un jardin à la française.
+On y trouve le monument Hirn, statue en bronze édifiée par Bartholdi en 1894.
 </t>
         </is>
       </c>
